--- a/data/trans_dic/P23_11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,22 +672,22 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +697,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 9,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,58</t>
+          <t>0,0; 47,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>0,0; 11,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 12,77</t>
+          <t>0,0; 12,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,0</t>
+          <t>1,89; 16,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 14,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 20,18</t>
+          <t>0,0; 6,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 30,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,83</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 28,27</t>
+          <t>1,66; 14,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 9,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 11,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,33</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 10,07</t>
+          <t>2,04; 11,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,84</t>
+          <t>0,91; 9,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 16,31</t>
+          <t>2,7; 15,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,7</t>
+          <t>1,45; 12,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,68</t>
+          <t>3,03; 10,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 7,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 9,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 8,97</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 7,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,25</t>
+          <t>0,0; 12,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,58</t>
+          <t>1,21; 10,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,81</t>
+          <t>1,1; 11,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 17,27</t>
+          <t>8,57; 23,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,14</t>
+          <t>8,36; 22,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,31</t>
+          <t>4,42; 16,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,98</t>
+          <t>4,65; 16,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,67</t>
+          <t>5,22; 13,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 15,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 11,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 10,93</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,0; 8,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,0</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 21,28</t>
+          <t>2,99; 34,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,47</t>
+          <t>4,88; 33,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,76</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,6</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,89</t>
+          <t>0,0; 14,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,49</t>
+          <t>3,64; 23,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,24</t>
+          <t>0,0; 6,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 9,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 20,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 23,51</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>2,76%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,32</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,21</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,5</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,36</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,91</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 9,75</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,49</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 24,27</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 14,72</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 6,26</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,79</t>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,91</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,02</t>
+          <t>0,61; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,87</t>
+          <t>0,61; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,36</t>
+          <t>2,21; 17,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,94</t>
+          <t>1,75; 6,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,02</t>
+          <t>4,66; 9,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,83</t>
+          <t>3,48; 8,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,9</t>
+          <t>3,69; 8,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,47</t>
+          <t>3,17; 7,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,61</t>
+          <t>3,06; 6,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 5,39</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 10,93</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 6,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,19%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6506</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6506</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20705</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22277</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19781</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5759</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2674</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8786</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5759</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2674</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28568</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 72698</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17603</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15163</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2342; 20704</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22774</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21631</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13932</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5739; 85310</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22587</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10276</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4760</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14768</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8813</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13059</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11470</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25045</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10793</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17249</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16230</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2601; 23403</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11551</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14969</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15128</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5245; 30244</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1864; 20442</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5420; 30119</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3426; 29503</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12568; 43159</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3820; 23725</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7368; 32842</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6641; 36483</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6719</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7864</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30248</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24017</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15656</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18755</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32741</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30736</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21427</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26618</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12962</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17687</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1783; 15605</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2100; 22770</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17566; 47881</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14276; 38692</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7196; 27596</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9560; 33911</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19814; 51740</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17972; 47662</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12167; 34411</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14040; 43390</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3474</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12948</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20353</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3842</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13936</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7316</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16832</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>34289</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11002</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11807</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3430; 39019</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7186; 49985</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10989</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12381</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11811</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4595; 29459</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15516</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1875; 17348</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5900; 41144</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16867; 64254</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5936</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3276</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5936</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3276</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18638</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15816</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16165</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20930</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21338</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16179</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17868</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 24631</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14807</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12173</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>42690</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32977</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65352</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>42622</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>44669</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>53048</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>80159</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>54795</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>87359</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>86025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5178; 29879</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4336; 26591</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16415; 128415</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>17615; 69308</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45119; 92167</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27222; 62756</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28847; 66139</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33486; 81651</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>55406; 109281</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>36807; 80295</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>57200; 166859</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>56843; 126769</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>